--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_49.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_49.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_0</t>
+          <t>model_1_49_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999398671020929</v>
+        <v>0.9369573418374948</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8291332442243977</v>
+        <v>0.7371846202923622</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8220567065173505</v>
+        <v>0.6398228515084041</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997626573515237</v>
+        <v>0.9164663688236806</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002503047928961766</v>
+        <v>0.2624167476407263</v>
       </c>
       <c r="G2" t="n">
-        <v>1.142586782640519</v>
+        <v>1.757447654258523</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6364928430424607</v>
+        <v>1.288332775883434</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007718055674515699</v>
+        <v>0.3000169582085322</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02419638946041546</v>
+        <v>1.31793308689705</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01582102376258176</v>
+        <v>0.5122662858716415</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003848505466053</v>
+        <v>0.9141546782468014</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01607018907162086</v>
+        <v>0.5203339677957025</v>
       </c>
       <c r="N2" t="n">
-        <v>146.585662422207</v>
+        <v>36.67564279819719</v>
       </c>
       <c r="O2" t="n">
-        <v>287.9208349654234</v>
+        <v>73.64022638642301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_6</t>
+          <t>model_1_49_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999222894117129</v>
+        <v>0.936948167149612</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8291147978761855</v>
+        <v>0.7371820677927016</v>
       </c>
       <c r="D3" t="n">
-        <v>0.822204019898956</v>
+        <v>0.6397127414341884</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995706378155814</v>
+        <v>0.916883522896213</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0003234723983714701</v>
+        <v>0.2624549375239736</v>
       </c>
       <c r="G3" t="n">
-        <v>1.142710133455952</v>
+        <v>1.757464722835507</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6359659116181786</v>
+        <v>1.288726633234354</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001396226622205461</v>
+        <v>0.2985187197842826</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02377009814093119</v>
+        <v>1.318326313113422</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01798533842804939</v>
+        <v>0.5123035599368538</v>
       </c>
       <c r="L3" t="n">
-        <v>1.004973477650374</v>
+        <v>0.9141421850547908</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01826858952954868</v>
+        <v>0.5203718288901816</v>
       </c>
       <c r="N3" t="n">
-        <v>146.072793539089</v>
+        <v>36.67535175652438</v>
       </c>
       <c r="O3" t="n">
-        <v>287.4079660823054</v>
+        <v>73.6399353447502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_7</t>
+          <t>model_1_49_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999067297485674</v>
+        <v>0.936936748838828</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8290867214136839</v>
+        <v>0.7366354042802221</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8225704495601851</v>
+        <v>0.6409160744980872</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994682827064925</v>
+        <v>0.9109347901231898</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0003882399116082431</v>
+        <v>0.2625024665474446</v>
       </c>
       <c r="G4" t="n">
-        <v>1.142897880889981</v>
+        <v>1.761120264260612</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6346552139667743</v>
+        <v>1.284422380638048</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001729071323986166</v>
+        <v>0.3198840152542078</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02700053405352205</v>
+        <v>1.313046641941073</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0197038044957882</v>
+        <v>0.5123499453961566</v>
       </c>
       <c r="L4" t="n">
-        <v>1.005969296091685</v>
+        <v>0.914126636716702</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02001411972001854</v>
+        <v>0.5204189448740999</v>
       </c>
       <c r="N4" t="n">
-        <v>145.7077741610806</v>
+        <v>36.67498960124677</v>
       </c>
       <c r="O4" t="n">
-        <v>287.042946704297</v>
+        <v>73.6395731894726</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_3</t>
+          <t>model_1_49_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999419795973304</v>
+        <v>0.9369781572227858</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8290762202704537</v>
+        <v>0.7365266669246642</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8219355637127708</v>
+        <v>0.6404015955358635</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997489576807729</v>
+        <v>0.9139337082571702</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002415114750732022</v>
+        <v>0.2623301030437481</v>
       </c>
       <c r="G5" t="n">
-        <v>1.142968102083114</v>
+        <v>1.761847391457917</v>
       </c>
       <c r="H5" t="n">
-        <v>0.636926163830179</v>
+        <v>1.286262642054719</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0008163550077883339</v>
+        <v>0.3091131881776964</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02462043473383121</v>
+        <v>1.315616428701443</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01554063946796277</v>
+        <v>0.5121817090093594</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003713305770852</v>
+        <v>0.9141830226012402</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01578538900464309</v>
+        <v>0.5202480589323853</v>
       </c>
       <c r="N5" t="n">
-        <v>146.6571871403388</v>
+        <v>36.67630326598391</v>
       </c>
       <c r="O5" t="n">
-        <v>287.9923596835553</v>
+        <v>73.64088685420974</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_2</t>
+          <t>model_1_49_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999431194195576</v>
+        <v>0.9368541188260383</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8290737636507647</v>
+        <v>0.7365190243316067</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8218927534908468</v>
+        <v>0.6412375865603599</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997612365741869</v>
+        <v>0.908348030055697</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0002367669346227701</v>
+        <v>0.2628464161816417</v>
       </c>
       <c r="G6" t="n">
-        <v>1.142984529510286</v>
+        <v>1.761898497512883</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6370792935117218</v>
+        <v>1.28327235063364</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0007764257394503124</v>
+        <v>0.3291745474163545</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02452798878796975</v>
+        <v>1.31101725139449</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01538723284488703</v>
+        <v>0.512685494413136</v>
       </c>
       <c r="L6" t="n">
-        <v>1.003640357148313</v>
+        <v>0.9140141192524777</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01562956638060427</v>
+        <v>0.5207597784526709</v>
       </c>
       <c r="N6" t="n">
-        <v>146.6968685977971</v>
+        <v>36.67237077254342</v>
       </c>
       <c r="O6" t="n">
-        <v>288.0320411410136</v>
+        <v>73.63695436076925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_1</t>
+          <t>model_1_49_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999418568194438</v>
+        <v>0.9369763121193347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8290622048174217</v>
+        <v>0.7365176497678838</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8220053454116875</v>
+        <v>0.6404851331270612</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997585767062719</v>
+        <v>0.9135075197942172</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000242022541303991</v>
+        <v>0.2623377833361213</v>
       </c>
       <c r="G7" t="n">
-        <v>1.143061823482075</v>
+        <v>1.761907689226828</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6366765587393293</v>
+        <v>1.285963832934792</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0007850752631608429</v>
+        <v>0.3106438742556051</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02396830976998524</v>
+        <v>1.315242038721183</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01555707367418407</v>
+        <v>0.5121892065790935</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003721163555596</v>
+        <v>0.9141805101199452</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01580208203318419</v>
+        <v>0.5202556745813479</v>
       </c>
       <c r="N7" t="n">
-        <v>146.6529593805223</v>
+        <v>36.67624471242976</v>
       </c>
       <c r="O7" t="n">
-        <v>287.9881319237386</v>
+        <v>73.64082830065558</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_9</t>
+          <t>model_1_49_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999008186469878</v>
+        <v>0.9368366843665836</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8290611634824305</v>
+        <v>0.7364944876519754</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8228178604113024</v>
+        <v>0.641281453731098</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9994240924227</v>
+        <v>0.9079167662465779</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004128450297414274</v>
+        <v>0.2629189875845667</v>
       </c>
       <c r="G8" t="n">
-        <v>1.143068786893955</v>
+        <v>1.762062574402558</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6337702396980329</v>
+        <v>1.283115440307474</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001872772033813322</v>
+        <v>0.3307234619598179</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02580382464156241</v>
+        <v>1.310688411216038</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02031858828121253</v>
+        <v>0.5127562652806562</v>
       </c>
       <c r="L8" t="n">
-        <v>1.006347606592783</v>
+        <v>0.9139903787119437</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02063858573550499</v>
+        <v>0.5208316638906095</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5848765321404</v>
+        <v>36.67181865250764</v>
       </c>
       <c r="O8" t="n">
-        <v>286.9200490753568</v>
+        <v>73.63640224073346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_8</t>
+          <t>model_1_49_4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999005885006003</v>
+        <v>0.9369550827664966</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8290606588573872</v>
+        <v>0.7364737119245743</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8228312353347113</v>
+        <v>0.6407851257001059</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9994235072607471</v>
+        <v>0.9117947697951778</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004138030202237374</v>
+        <v>0.2624261510840664</v>
       </c>
       <c r="G9" t="n">
-        <v>1.143072161323943</v>
+        <v>1.762201501787353</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6337223983725222</v>
+        <v>1.28489077689558</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001874674899800382</v>
+        <v>0.316795337296866</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02585163657057929</v>
+        <v>1.313763876177737</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0203421488595413</v>
+        <v>0.51227546406603</v>
       </c>
       <c r="L9" t="n">
-        <v>1.006362335961583</v>
+        <v>0.9141516020650167</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0206625173693905</v>
+        <v>0.5203432905374779</v>
       </c>
       <c r="N9" t="n">
-        <v>145.5802409878542</v>
+        <v>36.675571131469</v>
       </c>
       <c r="O9" t="n">
-        <v>286.9154135310706</v>
+        <v>73.64015471969482</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_5</t>
+          <t>model_1_49_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999333463303195</v>
+        <v>0.9368182217217099</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8290535475757729</v>
+        <v>0.7364728524060675</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8221215371429027</v>
+        <v>0.6413227158204755</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9996517016037442</v>
+        <v>0.9074854497551674</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002774476794867483</v>
+        <v>0.2629958388367474</v>
       </c>
       <c r="G10" t="n">
-        <v>1.143119714496843</v>
+        <v>1.762207249391565</v>
       </c>
       <c r="H10" t="n">
-        <v>0.636260947653956</v>
+        <v>1.282967848206284</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001132618360376648</v>
+        <v>0.3322725657154659</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02483592786445115</v>
+        <v>1.310362066024666</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01665676077413458</v>
+        <v>0.5128311991647422</v>
       </c>
       <c r="L10" t="n">
-        <v>1.004265834859552</v>
+        <v>0.9139652380891369</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01691908810567513</v>
+        <v>0.5209077779084634</v>
       </c>
       <c r="N10" t="n">
-        <v>146.3797563698885</v>
+        <v>36.6712341376861</v>
       </c>
       <c r="O10" t="n">
-        <v>287.7149289131049</v>
+        <v>73.63581772591192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_49_4</t>
+          <t>model_1_49_5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999432385274039</v>
+        <v>0.936946529842539</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8290398638393395</v>
+        <v>0.7364577482837281</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8219774500889869</v>
+        <v>0.6408522495707061</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997257363591427</v>
+        <v>0.9113650827702593</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0002362711450331823</v>
+        <v>0.2624617528583763</v>
       </c>
       <c r="G11" t="n">
-        <v>1.143211217705381</v>
+        <v>1.762308250727197</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6367763386911653</v>
+        <v>1.284650678702508</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0008918675439161805</v>
+        <v>0.3183385887080925</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02431162353354333</v>
+        <v>1.313400078598929</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01537111398152984</v>
+        <v>0.5123102115499713</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003632734246153</v>
+        <v>0.9141399555302658</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01561319366126216</v>
+        <v>0.5203785852595564</v>
       </c>
       <c r="N11" t="n">
-        <v>146.7010609856192</v>
+        <v>36.67529982192578</v>
       </c>
       <c r="O11" t="n">
-        <v>288.0362335288356</v>
+        <v>73.63988341015161</v>
       </c>
     </row>
   </sheetData>
